--- a/test_data/inter_test_data.xlsx
+++ b/test_data/inter_test_data.xlsx
@@ -8,35 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PycharmProjects\api_test_framework\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6E1AA6-636C-42F8-B49B-BADAEFEA404E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFE15E3-F965-4A5C-A615-5E425C3EC118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="775" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
-    <sheet name="登录接口用例" sheetId="2" r:id="rId2"/>
-    <sheet name="创建Account接口用例" sheetId="3" r:id="rId3"/>
-    <sheet name="获取Account接口用例" sheetId="4" r:id="rId4"/>
-    <sheet name="编辑Account接口用例" sheetId="5" r:id="rId5"/>
-    <sheet name="查询Account接口用例" sheetId="6" r:id="rId6"/>
-    <sheet name="删除Account接口用例" sheetId="7" r:id="rId7"/>
+    <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="NewAccount" sheetId="3" r:id="rId3"/>
+    <sheet name="GetAccount" sheetId="4" r:id="rId4"/>
+    <sheet name="EditAccount" sheetId="5" r:id="rId5"/>
+    <sheet name="QueryAccount" sheetId="6" r:id="rId6"/>
+    <sheet name="DeleteAccount" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="48">
   <si>
     <t>编号</t>
   </si>
@@ -62,13 +52,16 @@
     <t>/services/oauth2/token?</t>
   </si>
   <si>
+    <t>https://ap8.salesforce.com/services/oauth2/token?</t>
+  </si>
+  <si>
     <t>POST</t>
   </si>
   <si>
     <t>form</t>
   </si>
   <si>
-    <t>登录接口用例</t>
+    <t>Login</t>
   </si>
   <si>
     <t>Y</t>
@@ -77,31 +70,40 @@
     <t>/services/data/v48.0/sobjects/Account</t>
   </si>
   <si>
+    <t>https://ap8.salesforce.com/services/data/v48.0/sobjects/Account</t>
+  </si>
+  <si>
     <t>json</t>
   </si>
   <si>
-    <t>创建Account接口用例</t>
+    <t>NewAccount</t>
   </si>
   <si>
     <t>/services/data/v48.0/sobjects/Account/id/</t>
   </si>
   <si>
+    <t>https://ap8.salesforce.com/services/data/v48.0/sobjects/Account/id/</t>
+  </si>
+  <si>
     <t>GET</t>
   </si>
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>获取Account接口用例</t>
+    <t>GetAccount</t>
   </si>
   <si>
     <t>/services/data/v48.0/sobjects/Account/</t>
   </si>
   <si>
+    <t>https://ap8.salesforce.com/services/data/v48.0/sobjects/Account/</t>
+  </si>
+  <si>
     <t>PATCH</t>
   </si>
   <si>
-    <t>编辑Account接口用例</t>
+    <t>EditAccount</t>
   </si>
   <si>
     <t>N</t>
@@ -110,22 +112,25 @@
     <t>/services/data/v48.0/query/?q=</t>
   </si>
   <si>
+    <t>https://ap8.salesforce.com/services/data/v48.0/query/?q=</t>
+  </si>
+  <si>
     <t>params</t>
   </si>
   <si>
-    <t>查询Account接口用例</t>
+    <t>QueryAccount</t>
   </si>
   <si>
     <t>DELETE</t>
   </si>
   <si>
-    <t>删除Account接口用例</t>
+    <t>DeleteAccount</t>
   </si>
   <si>
     <t>RequestData</t>
   </si>
   <si>
-    <t>RelyData</t>
+    <t>RelyRule</t>
   </si>
   <si>
     <t>ResponseCode</t>
@@ -146,31 +151,25 @@
     <t>ErrorInfo</t>
   </si>
   <si>
+    <t>{"access_token":"00D0o0000018fYZ!ARMAQJf5xpdCja5hys3F9W28kjTLJfXbaRd4yLXhVnQJiJa2msCe484FTy4.kBu79Mg3AW38LTKv3u95dT2.8UDWdv0BgiWg","instance_url":"https://ap8.salesforce.com","id":"https://login.salesforce.com/id/00D0o0000018fYZEAY/0050o00000WR9H1AAL","token_type":"Bearer","issued_at":"1596113453229","signature":"+9aUuoS673xiz/+kTf5XjzeFqP1lb0TMnnys8Q8iPk8="}</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>{"Name": "jessicatest20200728"}</t>
   </si>
   <si>
-    <t>{"grant_type": "password","client_id": "3MVG9pe2TCoA1Pf5rH8DfBl9d2fFp8HjLb_qT2kinLYayyZW0ROHTrQH44dsrveZRkrVGOC9tST2MfmcGPY6s","client_secret": "FC5F7F6836001F41055D7A83AF3B282A3C2C1A8C3E1B1EBDA3BD17CABEFE4C53","username": "jessica.test@dev.com","password": "passwordtest"}</t>
+    <t>{"id":"NewAccount-&gt;1-&gt;response"}</t>
   </si>
   <si>
     <t>{"Name": "jessicatest20200728update"}</t>
   </si>
   <si>
-    <t>{'totalSize': 1, 'done': True, 'records': [{'attributes': {'type': 'Account', 'url': '/services/data/v48.0/sobjects/Account/0010o00002l0ZhaAAE'}, 'Id': '0010o00002l0ZhaAAE', 'Name': 'jessicatest20200728update'}]}</t>
-  </si>
-  <si>
-    <t>{"attributes":{"type":"Account","url":"/services/data/v48.0/sobjects/Account/0010o00002l0ZhaAAE"},"Id":"0010o00002l0ZhaAAE","IsDeleted":false,"MasterRecordId":null,"Name":"jessicatest20200728","Type":null,"ParentId":null,"BillingStreet":null,"BillingCity":null,"BillingState":null,"BillingPostalCode":null,"BillingCountry":null,"BillingLatitude":null,"BillingLongitude":null,"BillingGeocodeAccuracy":null,"BillingAddress":null,"ShippingStreet":null,"ShippingCity":null,"ShippingState":null,"ShippingPostalCode":null,"ShippingCountry":null,"ShippingLatitude":null,"ShippingLongitude":null,"ShippingGeocodeAccuracy":null,"ShippingAddress":null,"Phone":null,"Fax":null,"AccountNumber":null,"Website":null,"PhotoUrl":"/services/images/photo/0010o00002l0ZhaAAE","Sic":null,"Industry":null,"AnnualRevenue":null,"NumberOfEmployees":null,"Ownership":null,"TickerSymbol":null,"Description":null,"Rating":null,"Site":null,"OwnerId":"0050o00000WR9H1AAL","CreatedDate":"2020-07-30T08:16:47.000+0000","CreatedById":"0050o00000WR9H1AAL","LastModifiedDate":"2020-07-30T08:16:47.000+0000","LastModifiedById":"0050o00000WR9H1AAL","SystemModstamp":"2020-07-30T08:16:47.000+0000","LastActivityDate":null,"LastViewedDate":"2020-07-30T08:16:47.000+0000","LastReferencedDate":"2020-07-30T08:16:47.000+0000","Jigsaw":null,"JigsawCompanyId":null,"CleanStatus":"Pending","AccountSource":null,"DunsNumber":null,"Tradestyle":null,"NaicsCode":null,"NaicsDesc":null,"YearStarted":null,"SicDesc":null,"DandbCompanyId":null,"IsBuyer":false,"CustomerPriority__c":null,"SLA__c":null,"Active__c":null,"NumberofLocations__c":null,"UpsellOpportunity__c":null,"SLASerialNumber__c":null,"SLAExpirationDate__c":null}</t>
-  </si>
-  <si>
-    <t>{'id': '0010o00002l0ZhaAAE', 'success': True, 'errors': []}</t>
-  </si>
-  <si>
-    <t>{"access_token":"00D0o0000018fYZ!ARMAQJf5xpdCja5hys3F9W28kjTLJfXbaRd4yLXhVnQJiJa2msCe484FTy4.kBu79Mg3AW38LTKv3u95dT2.8UDWdv0BgiWg","instance_url":"https://ap8.salesforce.com","id":"https://login.salesforce.com/id/00D0o0000018fYZEAY/0050o00000WR9H1AAL","token_type":"Bearer","issued_at":"1596097006337","signature":"6GVcM2O/LMqUNInzZii0CdrmToj0akWpd5tEdUCmbFQ="}</t>
-  </si>
-  <si>
-    <t>{"Authorization": "Bearer 00D0o0000018fYZ!ARMAQJf5xpdCja5hys3F9W28kjTLJfXbaRd4yLXhVnQJiJa2msCe484FTy4.kBu79Mg3AW38LTKv3u95dT2.8UDWdv0BgiWg"}</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>{"id":"NewAccount-&gt;1-&gt;response","Name":"EditAccount-&gt;1-&gt;request"}</t>
+  </si>
+  <si>
+    <t>{"grant_type": "password","client_id": "3MVG9pe2TCoA1Pf5rH8DfBl9d2fFp8HjLb_qT2kinLYayyZW0ROHTrQH44dsrveZRkrVGOC9tST2MfmcGPY6s","client_secret": "FC5F7F6836001F41055D7A83AF3B282A3C2C1A8C3E1B1EBDA3BD17CABEFE4C53","username": "jessica.test@dev.com","password": ""}</t>
   </si>
 </sst>
 </file>
@@ -499,7 +498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -510,8 +511,8 @@
     <col min="5" max="5" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="8" max="12" width="8.88671875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -544,21 +545,20 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C7" si="0">"https://ap8.salesforce.com"&amp;B2</f>
-        <v>https://ap8.salesforce.com/services/oauth2/token?</v>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -566,23 +566,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ap8.salesforce.com/services/data/v48.0/sobjects/Account</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -590,23 +589,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ap8.salesforce.com/services/data/v48.0/sobjects/Account/id/</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -614,23 +612,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ap8.salesforce.com/services/data/v48.0/sobjects/Account/</v>
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -638,23 +635,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ap8.salesforce.com/services/data/v48.0/query/?q=</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -662,27 +658,27 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ap8.salesforce.com/services/data/v48.0/sobjects/Account/</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -690,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,8 +702,8 @@
     <col min="8" max="8" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.88671875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="2"/>
+    <col min="11" max="15" width="8.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -715,31 +711,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="144" customHeight="1" x14ac:dyDescent="0.3">
@@ -747,16 +743,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="2">
         <v>200</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -769,7 +768,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,8 +783,8 @@
     <col min="8" max="8" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.88671875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="2"/>
+    <col min="11" max="15" width="8.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -793,51 +792,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C2" s="3"/>
+      <c r="G2" s="2">
         <v>201</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -850,22 +844,23 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="11" max="13" width="8.88671875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -873,48 +868,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2">
         <v>200</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -927,7 +919,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -942,7 +934,8 @@
     <col min="8" max="8" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="11" max="13" width="8.88671875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -950,51 +943,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2">
         <v>204</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1007,7 +997,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1022,7 +1012,8 @@
     <col min="8" max="8" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="11" max="13" width="8.88671875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1030,48 +1021,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2">
         <v>200</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1083,7 +1071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1097,7 +1087,8 @@
     <col min="8" max="8" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="11" max="13" width="8.88671875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1105,48 +1096,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2">
         <v>204</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
